--- a/user-data/in-oof-net/in-oof-net.xlsx
+++ b/user-data/in-oof-net/in-oof-net.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t>id</t>
   </si>
@@ -1216,9 +1216,6 @@
     <t>Source: NA</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1601,32 +1598,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13">
@@ -1642,11 +1639,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/in-oof-net/in-oof-net.xlsx
+++ b/user-data/in-oof-net/in-oof-net.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1222,7 +1222,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/in-oof-net/in-oof-net.xlsx
+++ b/user-data/in-oof-net/in-oof-net.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t>id</t>
   </si>
@@ -1228,7 +1228,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1641,6 +1644,11 @@
         <v>406</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/in-oof-net/in-oof-net.xlsx
+++ b/user-data/in-oof-net/in-oof-net.xlsx
@@ -73,7 +73,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -206,12 +206,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -296,6 +290,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -865,7 +865,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -877,7 +877,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1051,7 +1051,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1075,7 +1075,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1135,7 +1135,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>west-indies</t>
@@ -1237,7 +1237,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7568,7 +7568,7 @@
         <v>2000</v>
       </c>
       <c r="D422" t="n">
-        <v>-115070000</v>
+        <v>-410000</v>
       </c>
     </row>
     <row r="423">
@@ -7582,7 +7582,7 @@
         <v>2001</v>
       </c>
       <c r="D423" t="n">
-        <v>-169710000</v>
+        <v>730000</v>
       </c>
     </row>
     <row r="424">
@@ -7596,7 +7596,7 @@
         <v>2002</v>
       </c>
       <c r="D424" t="n">
-        <v>182970000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="425">
@@ -7610,7 +7610,7 @@
         <v>2003</v>
       </c>
       <c r="D425" t="n">
-        <v>-203090000</v>
+        <v>1570000</v>
       </c>
     </row>
     <row r="426">
@@ -7624,7 +7624,7 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v>-97970000</v>
+        <v>7260000</v>
       </c>
     </row>
     <row r="427">
@@ -7638,7 +7638,7 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>-17910000</v>
+        <v>18920000</v>
       </c>
     </row>
     <row r="428">
@@ -7652,7 +7652,7 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>-16740000</v>
+        <v>2420000</v>
       </c>
     </row>
     <row r="429">
@@ -7666,7 +7666,7 @@
         <v>2007</v>
       </c>
       <c r="D429" t="n">
-        <v>-90860000</v>
+        <v>-9300000</v>
       </c>
     </row>
     <row r="430">
@@ -7680,7 +7680,7 @@
         <v>2008</v>
       </c>
       <c r="D430" t="n">
-        <v>-426800000</v>
+        <v>27230000</v>
       </c>
     </row>
     <row r="431">
@@ -7694,7 +7694,7 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v>-761610000</v>
+        <v>-8250000</v>
       </c>
     </row>
     <row r="432">
@@ -7708,7 +7708,7 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v>-78670000</v>
+        <v>-950000</v>
       </c>
     </row>
     <row r="433">
@@ -7722,7 +7722,7 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v>-52880000</v>
+        <v>16610000</v>
       </c>
     </row>
     <row r="434">
@@ -7736,7 +7736,7 @@
         <v>2012</v>
       </c>
       <c r="D434" t="n">
-        <v>-1418360000</v>
+        <v>38880000</v>
       </c>
     </row>
     <row r="435">
@@ -7750,7 +7750,7 @@
         <v>2013</v>
       </c>
       <c r="D435" t="n">
-        <v>-149960000</v>
+        <v>83670000</v>
       </c>
     </row>
     <row r="436">
@@ -7764,7 +7764,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>-410000</v>
+        <v>-108670000</v>
       </c>
     </row>
     <row r="437">
@@ -7778,7 +7778,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>730000</v>
+        <v>-221400000</v>
       </c>
     </row>
     <row r="438">
@@ -7792,7 +7792,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>5500000</v>
+        <v>269410000</v>
       </c>
     </row>
     <row r="439">
@@ -7806,7 +7806,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>1570000</v>
+        <v>-573740000</v>
       </c>
     </row>
     <row r="440">
@@ -7820,7 +7820,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>7260000</v>
+        <v>-369690000</v>
       </c>
     </row>
     <row r="441">
@@ -7834,7 +7834,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>18920000</v>
+        <v>-113910000</v>
       </c>
     </row>
     <row r="442">
@@ -7848,7 +7848,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>2420000</v>
+        <v>-1118060000</v>
       </c>
     </row>
     <row r="443">
@@ -7862,7 +7862,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>-9300000</v>
+        <v>-1172760000</v>
       </c>
     </row>
     <row r="444">
@@ -7876,7 +7876,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>27230000</v>
+        <v>-61390000</v>
       </c>
     </row>
     <row r="445">
@@ -7890,7 +7890,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>-8250000</v>
+        <v>64680000</v>
       </c>
     </row>
     <row r="446">
@@ -7904,7 +7904,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>-950000</v>
+        <v>31230000</v>
       </c>
     </row>
     <row r="447">
@@ -7918,7 +7918,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>16610000</v>
+        <v>-10800000</v>
       </c>
     </row>
     <row r="448">
@@ -7932,7 +7932,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>38880000</v>
+        <v>51630000</v>
       </c>
     </row>
     <row r="449">
@@ -7946,7 +7946,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>83670000</v>
+        <v>-58290000</v>
       </c>
     </row>
     <row r="450">
@@ -7960,7 +7960,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>-108670000</v>
+        <v>-2400000</v>
       </c>
     </row>
     <row r="451">
@@ -7974,7 +7974,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>-221400000</v>
+        <v>-1160000</v>
       </c>
     </row>
     <row r="452">
@@ -7988,7 +7988,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>269410000</v>
+        <v>-490000</v>
       </c>
     </row>
     <row r="453">
@@ -8002,7 +8002,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>-573740000</v>
+        <v>-590000</v>
       </c>
     </row>
     <row r="454">
@@ -8016,7 +8016,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>-369690000</v>
+        <v>-110000</v>
       </c>
     </row>
     <row r="455">
@@ -8030,7 +8030,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>-113910000</v>
+        <v>7860000</v>
       </c>
     </row>
     <row r="456">
@@ -8044,7 +8044,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>-1118060000</v>
+        <v>-1160000</v>
       </c>
     </row>
     <row r="457">
@@ -8058,7 +8058,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>-1172760000</v>
+        <v>-2820000</v>
       </c>
     </row>
     <row r="458">
@@ -8072,7 +8072,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>-61390000</v>
+        <v>1060000</v>
       </c>
     </row>
     <row r="459">
@@ -8086,7 +8086,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>64680000</v>
+        <v>35440000</v>
       </c>
     </row>
     <row r="460">
@@ -8100,7 +8100,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>31230000</v>
+        <v>23350000</v>
       </c>
     </row>
     <row r="461">
@@ -8114,7 +8114,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>-10800000</v>
+        <v>89430000</v>
       </c>
     </row>
     <row r="462">
@@ -8128,7 +8128,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>51630000</v>
+        <v>11830000</v>
       </c>
     </row>
     <row r="463">
@@ -8142,7 +8142,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>-58290000</v>
+        <v>40110000</v>
       </c>
     </row>
     <row r="464">
@@ -8156,7 +8156,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>-2400000</v>
+        <v>-2360000</v>
       </c>
     </row>
     <row r="465">
@@ -8170,7 +8170,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>-1160000</v>
+        <v>-540000</v>
       </c>
     </row>
     <row r="466">
@@ -8184,7 +8184,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>-490000</v>
+        <v>-920000</v>
       </c>
     </row>
     <row r="467">
@@ -8198,7 +8198,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>-590000</v>
+        <v>-130000</v>
       </c>
     </row>
     <row r="468">
@@ -8212,7 +8212,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>-110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -8226,7 +8226,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>7860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -8240,7 +8240,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>-1160000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="471">
@@ -8254,7 +8254,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>-2820000</v>
+        <v>-4300000</v>
       </c>
     </row>
     <row r="472">
@@ -8268,7 +8268,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>1060000</v>
+        <v>-660000</v>
       </c>
     </row>
     <row r="473">
@@ -8282,7 +8282,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>35440000</v>
+        <v>-1240000</v>
       </c>
     </row>
     <row r="474">
@@ -8296,7 +8296,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>23350000</v>
+        <v>-21600000</v>
       </c>
     </row>
     <row r="475">
@@ -8310,7 +8310,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>89430000</v>
+        <v>2220000</v>
       </c>
     </row>
     <row r="476">
@@ -8324,7 +8324,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>11830000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -8338,7 +8338,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>40110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -8352,7 +8352,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>-2360000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -8366,7 +8366,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>-540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -8380,7 +8380,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>-920000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -8394,7 +8394,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>-130000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -8436,7 +8436,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -8450,7 +8450,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>-4300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -8464,7 +8464,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>-660000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -8478,7 +8478,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>-1240000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -8492,7 +8492,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>-21600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -8506,7 +8506,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>2220000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -8646,7 +8646,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>0</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="500">
@@ -8702,7 +8702,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>0</v>
+        <v>29280000</v>
       </c>
     </row>
     <row r="504">
@@ -8716,7 +8716,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>45000000</v>
       </c>
     </row>
     <row r="505">
@@ -8744,7 +8744,7 @@
         <v>2000</v>
       </c>
       <c r="D506" t="n">
-        <v>0</v>
+        <v>-1610000</v>
       </c>
     </row>
     <row r="507">
@@ -8758,7 +8758,7 @@
         <v>2001</v>
       </c>
       <c r="D507" t="n">
-        <v>0</v>
+        <v>16530000</v>
       </c>
     </row>
     <row r="508">
@@ -8772,7 +8772,7 @@
         <v>2002</v>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>10600000</v>
       </c>
     </row>
     <row r="509">
@@ -8786,7 +8786,7 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>29960000</v>
       </c>
     </row>
     <row r="510">
@@ -8800,7 +8800,7 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>6580000</v>
       </c>
     </row>
     <row r="511">
@@ -8814,7 +8814,7 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>-5460000</v>
       </c>
     </row>
     <row r="512">
@@ -8828,7 +8828,7 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>-12390000</v>
       </c>
     </row>
     <row r="513">
@@ -8842,7 +8842,7 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>880000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="514">
@@ -8856,7 +8856,7 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>-26990000</v>
       </c>
     </row>
     <row r="515">
@@ -8870,7 +8870,7 @@
         <v>2009</v>
       </c>
       <c r="D515" t="n">
-        <v>0</v>
+        <v>-6820000</v>
       </c>
     </row>
     <row r="516">
@@ -8884,7 +8884,7 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>34430000</v>
       </c>
     </row>
     <row r="517">
@@ -8898,7 +8898,7 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>29280000</v>
+        <v>14920000</v>
       </c>
     </row>
     <row r="518">
@@ -8912,7 +8912,7 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>45000000</v>
+        <v>26160000</v>
       </c>
     </row>
     <row r="519">
@@ -8926,7 +8926,7 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>-1890000</v>
       </c>
     </row>
     <row r="520">
@@ -8940,7 +8940,7 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>-1610000</v>
+        <v>-393010000</v>
       </c>
     </row>
     <row r="521">
@@ -8954,7 +8954,7 @@
         <v>2001</v>
       </c>
       <c r="D521" t="n">
-        <v>16530000</v>
+        <v>96220000</v>
       </c>
     </row>
     <row r="522">
@@ -8968,7 +8968,7 @@
         <v>2002</v>
       </c>
       <c r="D522" t="n">
-        <v>10600000</v>
+        <v>-528520000</v>
       </c>
     </row>
     <row r="523">
@@ -8982,7 +8982,7 @@
         <v>2003</v>
       </c>
       <c r="D523" t="n">
-        <v>29960000</v>
+        <v>-91530000</v>
       </c>
     </row>
     <row r="524">
@@ -8996,7 +8996,7 @@
         <v>2004</v>
       </c>
       <c r="D524" t="n">
-        <v>6580000</v>
+        <v>-556150000</v>
       </c>
     </row>
     <row r="525">
@@ -9010,7 +9010,7 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>-5460000</v>
+        <v>-153750000</v>
       </c>
     </row>
     <row r="526">
@@ -9024,7 +9024,7 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>-12390000</v>
+        <v>52960000</v>
       </c>
     </row>
     <row r="527">
@@ -9038,7 +9038,7 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>2900000</v>
+        <v>-106700000</v>
       </c>
     </row>
     <row r="528">
@@ -9052,7 +9052,7 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>-26990000</v>
+        <v>466250000</v>
       </c>
     </row>
     <row r="529">
@@ -9066,7 +9066,7 @@
         <v>2009</v>
       </c>
       <c r="D529" t="n">
-        <v>-6820000</v>
+        <v>878310000</v>
       </c>
     </row>
     <row r="530">
@@ -9080,7 +9080,7 @@
         <v>2010</v>
       </c>
       <c r="D530" t="n">
-        <v>34430000</v>
+        <v>811070000</v>
       </c>
     </row>
     <row r="531">
@@ -9094,7 +9094,7 @@
         <v>2011</v>
       </c>
       <c r="D531" t="n">
-        <v>14920000</v>
+        <v>364590000</v>
       </c>
     </row>
     <row r="532">
@@ -9108,7 +9108,7 @@
         <v>2012</v>
       </c>
       <c r="D532" t="n">
-        <v>26160000</v>
+        <v>6168270000</v>
       </c>
     </row>
     <row r="533">
@@ -9122,7 +9122,7 @@
         <v>2013</v>
       </c>
       <c r="D533" t="n">
-        <v>-1890000</v>
+        <v>1035920000</v>
       </c>
     </row>
     <row r="534">
@@ -9136,7 +9136,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>-393010000</v>
+        <v>40700000</v>
       </c>
     </row>
     <row r="535">
@@ -9150,7 +9150,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>96220000</v>
+        <v>2278090000</v>
       </c>
     </row>
     <row r="536">
@@ -9164,7 +9164,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>-528520000</v>
+        <v>-2255630000</v>
       </c>
     </row>
     <row r="537">
@@ -9178,7 +9178,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>-91530000</v>
+        <v>-4346360000</v>
       </c>
     </row>
     <row r="538">
@@ -9192,7 +9192,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>-556150000</v>
+        <v>334330000</v>
       </c>
     </row>
     <row r="539">
@@ -9206,7 +9206,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>-153750000</v>
+        <v>227430000</v>
       </c>
     </row>
     <row r="540">
@@ -9220,7 +9220,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>52960000</v>
+        <v>1205800000</v>
       </c>
     </row>
     <row r="541">
@@ -9234,7 +9234,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>-106700000</v>
+        <v>805610000</v>
       </c>
     </row>
     <row r="542">
@@ -9248,7 +9248,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>466250000</v>
+        <v>1590540000</v>
       </c>
     </row>
     <row r="543">
@@ -9262,7 +9262,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>878310000</v>
+        <v>260390000</v>
       </c>
     </row>
     <row r="544">
@@ -9276,7 +9276,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>811070000</v>
+        <v>2548850000</v>
       </c>
     </row>
     <row r="545">
@@ -9290,7 +9290,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>364590000</v>
+        <v>1513530000</v>
       </c>
     </row>
     <row r="546">
@@ -9304,7 +9304,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>6168270000</v>
+        <v>792040000</v>
       </c>
     </row>
     <row r="547">
@@ -9318,7 +9318,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>1035920000</v>
+        <v>999670000</v>
       </c>
     </row>
     <row r="548">
@@ -9332,7 +9332,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>40700000</v>
+        <v>-360310000</v>
       </c>
     </row>
     <row r="549">
@@ -9346,7 +9346,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>2278090000</v>
+        <v>1003490000</v>
       </c>
     </row>
     <row r="550">
@@ -9360,7 +9360,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>-2255630000</v>
+        <v>-96260000</v>
       </c>
     </row>
     <row r="551">
@@ -9374,7 +9374,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>-4346360000</v>
+        <v>2559470000</v>
       </c>
     </row>
     <row r="552">
@@ -9388,7 +9388,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>334330000</v>
+        <v>-60250000</v>
       </c>
     </row>
     <row r="553">
@@ -9402,7 +9402,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>227430000</v>
+        <v>-1036700000</v>
       </c>
     </row>
     <row r="554">
@@ -9416,7 +9416,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>1205800000</v>
+        <v>1436390000</v>
       </c>
     </row>
     <row r="555">
@@ -9430,7 +9430,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>805610000</v>
+        <v>983850000</v>
       </c>
     </row>
     <row r="556">
@@ -9444,7 +9444,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>1590540000</v>
+        <v>1481250000</v>
       </c>
     </row>
     <row r="557">
@@ -9458,7 +9458,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>260390000</v>
+        <v>1918110000</v>
       </c>
     </row>
     <row r="558">
@@ -9472,7 +9472,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>2548850000</v>
+        <v>1390660000</v>
       </c>
     </row>
     <row r="559">
@@ -9486,7 +9486,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>1513530000</v>
+        <v>369100000</v>
       </c>
     </row>
     <row r="560">
@@ -9500,7 +9500,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>792040000</v>
+        <v>2583300000</v>
       </c>
     </row>
     <row r="561">
@@ -9514,7 +9514,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>999670000</v>
+        <v>1390600000</v>
       </c>
     </row>
     <row r="562">
@@ -9528,7 +9528,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>-360310000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="563">
@@ -9542,7 +9542,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>1003490000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -9556,7 +9556,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>-96260000</v>
+        <v>-890000</v>
       </c>
     </row>
     <row r="565">
@@ -9570,7 +9570,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>2559470000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -9584,7 +9584,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>-60250000</v>
+        <v>-230000</v>
       </c>
     </row>
     <row r="567">
@@ -9598,7 +9598,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>-1036700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -9612,7 +9612,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>1436390000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -9626,7 +9626,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>983850000</v>
+        <v>-10530000</v>
       </c>
     </row>
     <row r="570">
@@ -9640,7 +9640,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>1481250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -9654,7 +9654,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>1918110000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="572">
@@ -9668,7 +9668,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>1390660000</v>
+        <v>2300000</v>
       </c>
     </row>
     <row r="573">
@@ -9682,7 +9682,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>369100000</v>
+        <v>-790000</v>
       </c>
     </row>
     <row r="574">
@@ -9696,7 +9696,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>2583300000</v>
+        <v>-240000</v>
       </c>
     </row>
     <row r="575">
@@ -9710,7 +9710,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>1390600000</v>
+        <v>-5010000</v>
       </c>
     </row>
     <row r="576">
@@ -9724,7 +9724,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>-50000</v>
+        <v>-26370000</v>
       </c>
     </row>
     <row r="577">
@@ -9738,7 +9738,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>0</v>
+        <v>-94260000</v>
       </c>
     </row>
     <row r="578">
@@ -9752,7 +9752,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>-890000</v>
+        <v>-46700000</v>
       </c>
     </row>
     <row r="579">
@@ -9766,7 +9766,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>0</v>
+        <v>425480000</v>
       </c>
     </row>
     <row r="580">
@@ -9780,7 +9780,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>-230000</v>
+        <v>-104070000</v>
       </c>
     </row>
     <row r="581">
@@ -9794,7 +9794,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>501610000</v>
       </c>
     </row>
     <row r="582">
@@ -9808,7 +9808,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>-135160000</v>
       </c>
     </row>
     <row r="583">
@@ -9822,7 +9822,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>-10530000</v>
+        <v>-94800000</v>
       </c>
     </row>
     <row r="584">
@@ -9836,7 +9836,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>0</v>
+        <v>-207600000</v>
       </c>
     </row>
     <row r="585">
@@ -9850,7 +9850,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>-1000000</v>
+        <v>-110250000</v>
       </c>
     </row>
     <row r="586">
@@ -9864,7 +9864,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>2300000</v>
+        <v>-975360000</v>
       </c>
     </row>
     <row r="587">
@@ -9878,7 +9878,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>-790000</v>
+        <v>-52490000</v>
       </c>
     </row>
     <row r="588">
@@ -9892,7 +9892,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>-240000</v>
+        <v>-8520000</v>
       </c>
     </row>
     <row r="589">
@@ -9906,7 +9906,7 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>-5010000</v>
+        <v>-10730000</v>
       </c>
     </row>
     <row r="590">
@@ -9920,7 +9920,7 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>-26370000</v>
+        <v>-430000</v>
       </c>
     </row>
     <row r="591">
@@ -9934,7 +9934,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>-94260000</v>
+        <v>-470000</v>
       </c>
     </row>
     <row r="592">
@@ -9948,7 +9948,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>-46700000</v>
+        <v>-430000</v>
       </c>
     </row>
     <row r="593">
@@ -9962,7 +9962,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>425480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -9976,7 +9976,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>-104070000</v>
+        <v>-400000</v>
       </c>
     </row>
     <row r="595">
@@ -9990,7 +9990,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>501610000</v>
+        <v>-400000</v>
       </c>
     </row>
     <row r="596">
@@ -10004,7 +10004,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>-135160000</v>
+        <v>-9290000</v>
       </c>
     </row>
     <row r="597">
@@ -10018,7 +10018,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>-94800000</v>
+        <v>-370000</v>
       </c>
     </row>
     <row r="598">
@@ -10032,7 +10032,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>-207600000</v>
+        <v>-110000</v>
       </c>
     </row>
     <row r="599">
@@ -10046,7 +10046,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>-110250000</v>
+        <v>-540000</v>
       </c>
     </row>
     <row r="600">
@@ -10060,7 +10060,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>-975360000</v>
+        <v>10040000</v>
       </c>
     </row>
     <row r="601">
@@ -10074,7 +10074,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>-52490000</v>
+        <v>5100000</v>
       </c>
     </row>
     <row r="602">
@@ -10088,7 +10088,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>-8520000</v>
+        <v>7090000</v>
       </c>
     </row>
     <row r="603">
@@ -10102,7 +10102,7 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>-10730000</v>
+        <v>4920000</v>
       </c>
     </row>
     <row r="604">
@@ -10116,7 +10116,7 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>-430000</v>
+        <v>-73810000</v>
       </c>
     </row>
     <row r="605">
@@ -10130,7 +10130,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>-470000</v>
+        <v>-77810000</v>
       </c>
     </row>
     <row r="606">
@@ -10144,7 +10144,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>-430000</v>
+        <v>-35350000</v>
       </c>
     </row>
     <row r="607">
@@ -10158,7 +10158,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>0</v>
+        <v>8440000</v>
       </c>
     </row>
     <row r="608">
@@ -10172,7 +10172,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>-400000</v>
+        <v>-8570000</v>
       </c>
     </row>
     <row r="609">
@@ -10186,7 +10186,7 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>-400000</v>
+        <v>-151850000</v>
       </c>
     </row>
     <row r="610">
@@ -10200,7 +10200,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>-9290000</v>
+        <v>-78660000</v>
       </c>
     </row>
     <row r="611">
@@ -10214,7 +10214,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>-370000</v>
+        <v>-113040000</v>
       </c>
     </row>
     <row r="612">
@@ -10228,7 +10228,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>-110000</v>
+        <v>-97440000</v>
       </c>
     </row>
     <row r="613">
@@ -10242,7 +10242,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>-540000</v>
+        <v>27100000</v>
       </c>
     </row>
     <row r="614">
@@ -10256,7 +10256,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>10040000</v>
+        <v>534320000</v>
       </c>
     </row>
     <row r="615">
@@ -10270,7 +10270,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>5100000</v>
+        <v>174390000</v>
       </c>
     </row>
     <row r="616">
@@ -10284,7 +10284,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>7090000</v>
+        <v>99390000</v>
       </c>
     </row>
     <row r="617">
@@ -10298,7 +10298,7 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>4920000</v>
+        <v>138890000</v>
       </c>
     </row>
     <row r="618">
@@ -10312,7 +10312,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>-73810000</v>
+        <v>-115070000</v>
       </c>
     </row>
     <row r="619">
@@ -10326,7 +10326,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>-77810000</v>
+        <v>-169710000</v>
       </c>
     </row>
     <row r="620">
@@ -10340,7 +10340,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>-35350000</v>
+        <v>182970000</v>
       </c>
     </row>
     <row r="621">
@@ -10354,7 +10354,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>8440000</v>
+        <v>-203090000</v>
       </c>
     </row>
     <row r="622">
@@ -10368,7 +10368,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>-8570000</v>
+        <v>-97970000</v>
       </c>
     </row>
     <row r="623">
@@ -10382,7 +10382,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>-151850000</v>
+        <v>-17910000</v>
       </c>
     </row>
     <row r="624">
@@ -10396,7 +10396,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>-78660000</v>
+        <v>-16740000</v>
       </c>
     </row>
     <row r="625">
@@ -10410,7 +10410,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>-113040000</v>
+        <v>-90860000</v>
       </c>
     </row>
     <row r="626">
@@ -10424,7 +10424,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>-97440000</v>
+        <v>-426800000</v>
       </c>
     </row>
     <row r="627">
@@ -10438,7 +10438,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>27100000</v>
+        <v>-761610000</v>
       </c>
     </row>
     <row r="628">
@@ -10452,7 +10452,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>534320000</v>
+        <v>-78670000</v>
       </c>
     </row>
     <row r="629">
@@ -10466,7 +10466,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>174390000</v>
+        <v>-52880000</v>
       </c>
     </row>
     <row r="630">
@@ -10480,7 +10480,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>99390000</v>
+        <v>-1418360000</v>
       </c>
     </row>
     <row r="631">
@@ -10494,7 +10494,7 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>138890000</v>
+        <v>-149960000</v>
       </c>
     </row>
     <row r="632">
@@ -40293,46 +40293,46 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>-115070000</v>
+        <v>-410000</v>
       </c>
       <c r="D32" t="n">
-        <v>-169710000</v>
+        <v>730000</v>
       </c>
       <c r="E32" t="n">
-        <v>182970000</v>
+        <v>5500000</v>
       </c>
       <c r="F32" t="n">
-        <v>-203090000</v>
+        <v>1570000</v>
       </c>
       <c r="G32" t="n">
-        <v>-97970000</v>
+        <v>7260000</v>
       </c>
       <c r="H32" t="n">
-        <v>-17910000</v>
+        <v>18920000</v>
       </c>
       <c r="I32" t="n">
-        <v>-16740000</v>
+        <v>2420000</v>
       </c>
       <c r="J32" t="n">
-        <v>-90860000</v>
+        <v>-9300000</v>
       </c>
       <c r="K32" t="n">
-        <v>-426800000</v>
+        <v>27230000</v>
       </c>
       <c r="L32" t="n">
-        <v>-761610000</v>
+        <v>-8250000</v>
       </c>
       <c r="M32" t="n">
-        <v>-78670000</v>
+        <v>-950000</v>
       </c>
       <c r="N32" t="n">
-        <v>-52880000</v>
+        <v>16610000</v>
       </c>
       <c r="O32" t="n">
-        <v>-1418360000</v>
+        <v>38880000</v>
       </c>
       <c r="P32" t="n">
-        <v>-149960000</v>
+        <v>83670000</v>
       </c>
     </row>
     <row r="33">
@@ -40343,46 +40343,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>-410000</v>
+        <v>-108670000</v>
       </c>
       <c r="D33" t="n">
-        <v>730000</v>
+        <v>-221400000</v>
       </c>
       <c r="E33" t="n">
-        <v>5500000</v>
+        <v>269410000</v>
       </c>
       <c r="F33" t="n">
-        <v>1570000</v>
+        <v>-573740000</v>
       </c>
       <c r="G33" t="n">
-        <v>7260000</v>
+        <v>-369690000</v>
       </c>
       <c r="H33" t="n">
-        <v>18920000</v>
+        <v>-113910000</v>
       </c>
       <c r="I33" t="n">
-        <v>2420000</v>
+        <v>-1118060000</v>
       </c>
       <c r="J33" t="n">
-        <v>-9300000</v>
+        <v>-1172760000</v>
       </c>
       <c r="K33" t="n">
-        <v>27230000</v>
+        <v>-61390000</v>
       </c>
       <c r="L33" t="n">
-        <v>-8250000</v>
+        <v>64680000</v>
       </c>
       <c r="M33" t="n">
-        <v>-950000</v>
+        <v>31230000</v>
       </c>
       <c r="N33" t="n">
-        <v>16610000</v>
+        <v>-10800000</v>
       </c>
       <c r="O33" t="n">
-        <v>38880000</v>
+        <v>51630000</v>
       </c>
       <c r="P33" t="n">
-        <v>83670000</v>
+        <v>-58290000</v>
       </c>
     </row>
     <row r="34">
@@ -40393,46 +40393,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>-108670000</v>
+        <v>-2400000</v>
       </c>
       <c r="D34" t="n">
-        <v>-221400000</v>
+        <v>-1160000</v>
       </c>
       <c r="E34" t="n">
-        <v>269410000</v>
+        <v>-490000</v>
       </c>
       <c r="F34" t="n">
-        <v>-573740000</v>
+        <v>-590000</v>
       </c>
       <c r="G34" t="n">
-        <v>-369690000</v>
+        <v>-110000</v>
       </c>
       <c r="H34" t="n">
-        <v>-113910000</v>
+        <v>7860000</v>
       </c>
       <c r="I34" t="n">
-        <v>-1118060000</v>
+        <v>-1160000</v>
       </c>
       <c r="J34" t="n">
-        <v>-1172760000</v>
+        <v>-2820000</v>
       </c>
       <c r="K34" t="n">
-        <v>-61390000</v>
+        <v>1060000</v>
       </c>
       <c r="L34" t="n">
-        <v>64680000</v>
+        <v>35440000</v>
       </c>
       <c r="M34" t="n">
-        <v>31230000</v>
+        <v>23350000</v>
       </c>
       <c r="N34" t="n">
-        <v>-10800000</v>
+        <v>89430000</v>
       </c>
       <c r="O34" t="n">
-        <v>51630000</v>
+        <v>11830000</v>
       </c>
       <c r="P34" t="n">
-        <v>-58290000</v>
+        <v>40110000</v>
       </c>
     </row>
     <row r="35">
@@ -40443,46 +40443,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>-2400000</v>
+        <v>-2360000</v>
       </c>
       <c r="D35" t="n">
-        <v>-1160000</v>
+        <v>-540000</v>
       </c>
       <c r="E35" t="n">
-        <v>-490000</v>
+        <v>-920000</v>
       </c>
       <c r="F35" t="n">
-        <v>-590000</v>
+        <v>-130000</v>
       </c>
       <c r="G35" t="n">
-        <v>-110000</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7860000</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1160000</v>
+        <v>850000</v>
       </c>
       <c r="J35" t="n">
-        <v>-2820000</v>
+        <v>-4300000</v>
       </c>
       <c r="K35" t="n">
-        <v>1060000</v>
+        <v>-660000</v>
       </c>
       <c r="L35" t="n">
-        <v>35440000</v>
+        <v>-1240000</v>
       </c>
       <c r="M35" t="n">
-        <v>23350000</v>
+        <v>-21600000</v>
       </c>
       <c r="N35" t="n">
-        <v>89430000</v>
+        <v>2220000</v>
       </c>
       <c r="O35" t="n">
-        <v>11830000</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>40110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -40493,16 +40493,16 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>-2360000</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-540000</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-920000</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-130000</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -40511,22 +40511,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>850000</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-4300000</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>-660000</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-1240000</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-21600000</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2220000</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -40564,7 +40564,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>880000</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -40576,10 +40576,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>29280000</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>45000000</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -40593,46 +40593,46 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1610000</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>16530000</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>10600000</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>29960000</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6580000</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-5460000</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-12390000</v>
       </c>
       <c r="J38" t="n">
-        <v>880000</v>
+        <v>2900000</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-26990000</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-6820000</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>34430000</v>
       </c>
       <c r="N38" t="n">
-        <v>29280000</v>
+        <v>14920000</v>
       </c>
       <c r="O38" t="n">
-        <v>45000000</v>
+        <v>26160000</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-1890000</v>
       </c>
     </row>
     <row r="39">
@@ -40643,46 +40643,46 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>-1610000</v>
+        <v>-393010000</v>
       </c>
       <c r="D39" t="n">
-        <v>16530000</v>
+        <v>96220000</v>
       </c>
       <c r="E39" t="n">
-        <v>10600000</v>
+        <v>-528520000</v>
       </c>
       <c r="F39" t="n">
-        <v>29960000</v>
+        <v>-91530000</v>
       </c>
       <c r="G39" t="n">
-        <v>6580000</v>
+        <v>-556150000</v>
       </c>
       <c r="H39" t="n">
-        <v>-5460000</v>
+        <v>-153750000</v>
       </c>
       <c r="I39" t="n">
-        <v>-12390000</v>
+        <v>52960000</v>
       </c>
       <c r="J39" t="n">
-        <v>2900000</v>
+        <v>-106700000</v>
       </c>
       <c r="K39" t="n">
-        <v>-26990000</v>
+        <v>466250000</v>
       </c>
       <c r="L39" t="n">
-        <v>-6820000</v>
+        <v>878310000</v>
       </c>
       <c r="M39" t="n">
-        <v>34430000</v>
+        <v>811070000</v>
       </c>
       <c r="N39" t="n">
-        <v>14920000</v>
+        <v>364590000</v>
       </c>
       <c r="O39" t="n">
-        <v>26160000</v>
+        <v>6168270000</v>
       </c>
       <c r="P39" t="n">
-        <v>-1890000</v>
+        <v>1035920000</v>
       </c>
     </row>
     <row r="40">
@@ -40693,46 +40693,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>-393010000</v>
+        <v>40700000</v>
       </c>
       <c r="D40" t="n">
-        <v>96220000</v>
+        <v>2278090000</v>
       </c>
       <c r="E40" t="n">
-        <v>-528520000</v>
+        <v>-2255630000</v>
       </c>
       <c r="F40" t="n">
-        <v>-91530000</v>
+        <v>-4346360000</v>
       </c>
       <c r="G40" t="n">
-        <v>-556150000</v>
+        <v>334330000</v>
       </c>
       <c r="H40" t="n">
-        <v>-153750000</v>
+        <v>227430000</v>
       </c>
       <c r="I40" t="n">
-        <v>52960000</v>
+        <v>1205800000</v>
       </c>
       <c r="J40" t="n">
-        <v>-106700000</v>
+        <v>805610000</v>
       </c>
       <c r="K40" t="n">
-        <v>466250000</v>
+        <v>1590540000</v>
       </c>
       <c r="L40" t="n">
-        <v>878310000</v>
+        <v>260390000</v>
       </c>
       <c r="M40" t="n">
-        <v>811070000</v>
+        <v>2548850000</v>
       </c>
       <c r="N40" t="n">
-        <v>364590000</v>
+        <v>1513530000</v>
       </c>
       <c r="O40" t="n">
-        <v>6168270000</v>
+        <v>792040000</v>
       </c>
       <c r="P40" t="n">
-        <v>1035920000</v>
+        <v>999670000</v>
       </c>
     </row>
     <row r="41">
@@ -40743,46 +40743,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>40700000</v>
+        <v>-360310000</v>
       </c>
       <c r="D41" t="n">
-        <v>2278090000</v>
+        <v>1003490000</v>
       </c>
       <c r="E41" t="n">
-        <v>-2255630000</v>
+        <v>-96260000</v>
       </c>
       <c r="F41" t="n">
-        <v>-4346360000</v>
+        <v>2559470000</v>
       </c>
       <c r="G41" t="n">
-        <v>334330000</v>
+        <v>-60250000</v>
       </c>
       <c r="H41" t="n">
-        <v>227430000</v>
+        <v>-1036700000</v>
       </c>
       <c r="I41" t="n">
-        <v>1205800000</v>
+        <v>1436390000</v>
       </c>
       <c r="J41" t="n">
-        <v>805610000</v>
+        <v>983850000</v>
       </c>
       <c r="K41" t="n">
-        <v>1590540000</v>
+        <v>1481250000</v>
       </c>
       <c r="L41" t="n">
-        <v>260390000</v>
+        <v>1918110000</v>
       </c>
       <c r="M41" t="n">
-        <v>2548850000</v>
+        <v>1390660000</v>
       </c>
       <c r="N41" t="n">
-        <v>1513530000</v>
+        <v>369100000</v>
       </c>
       <c r="O41" t="n">
-        <v>792040000</v>
+        <v>2583300000</v>
       </c>
       <c r="P41" t="n">
-        <v>999670000</v>
+        <v>1390600000</v>
       </c>
     </row>
     <row r="42">
@@ -40793,46 +40793,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>-360310000</v>
+        <v>-50000</v>
       </c>
       <c r="D42" t="n">
-        <v>1003490000</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-96260000</v>
+        <v>-890000</v>
       </c>
       <c r="F42" t="n">
-        <v>2559470000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-60250000</v>
+        <v>-230000</v>
       </c>
       <c r="H42" t="n">
-        <v>-1036700000</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1436390000</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>983850000</v>
+        <v>-10530000</v>
       </c>
       <c r="K42" t="n">
-        <v>1481250000</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1918110000</v>
+        <v>-1000000</v>
       </c>
       <c r="M42" t="n">
-        <v>1390660000</v>
+        <v>2300000</v>
       </c>
       <c r="N42" t="n">
-        <v>369100000</v>
+        <v>-790000</v>
       </c>
       <c r="O42" t="n">
-        <v>2583300000</v>
+        <v>-240000</v>
       </c>
       <c r="P42" t="n">
-        <v>1390600000</v>
+        <v>-5010000</v>
       </c>
     </row>
     <row r="43">
@@ -40843,46 +40843,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>-50000</v>
+        <v>-26370000</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-94260000</v>
       </c>
       <c r="E43" t="n">
-        <v>-890000</v>
+        <v>-46700000</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>425480000</v>
       </c>
       <c r="G43" t="n">
-        <v>-230000</v>
+        <v>-104070000</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>501610000</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-135160000</v>
       </c>
       <c r="J43" t="n">
-        <v>-10530000</v>
+        <v>-94800000</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-207600000</v>
       </c>
       <c r="L43" t="n">
-        <v>-1000000</v>
+        <v>-110250000</v>
       </c>
       <c r="M43" t="n">
-        <v>2300000</v>
+        <v>-975360000</v>
       </c>
       <c r="N43" t="n">
-        <v>-790000</v>
+        <v>-52490000</v>
       </c>
       <c r="O43" t="n">
-        <v>-240000</v>
+        <v>-8520000</v>
       </c>
       <c r="P43" t="n">
-        <v>-5010000</v>
+        <v>-10730000</v>
       </c>
     </row>
     <row r="44">
@@ -40893,46 +40893,46 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>-26370000</v>
+        <v>-430000</v>
       </c>
       <c r="D44" t="n">
-        <v>-94260000</v>
+        <v>-470000</v>
       </c>
       <c r="E44" t="n">
-        <v>-46700000</v>
+        <v>-430000</v>
       </c>
       <c r="F44" t="n">
-        <v>425480000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-104070000</v>
+        <v>-400000</v>
       </c>
       <c r="H44" t="n">
-        <v>501610000</v>
+        <v>-400000</v>
       </c>
       <c r="I44" t="n">
-        <v>-135160000</v>
+        <v>-9290000</v>
       </c>
       <c r="J44" t="n">
-        <v>-94800000</v>
+        <v>-370000</v>
       </c>
       <c r="K44" t="n">
-        <v>-207600000</v>
+        <v>-110000</v>
       </c>
       <c r="L44" t="n">
-        <v>-110250000</v>
+        <v>-540000</v>
       </c>
       <c r="M44" t="n">
-        <v>-975360000</v>
+        <v>10040000</v>
       </c>
       <c r="N44" t="n">
-        <v>-52490000</v>
+        <v>5100000</v>
       </c>
       <c r="O44" t="n">
-        <v>-8520000</v>
+        <v>7090000</v>
       </c>
       <c r="P44" t="n">
-        <v>-10730000</v>
+        <v>4920000</v>
       </c>
     </row>
     <row r="45">
@@ -40943,46 +40943,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>-430000</v>
+        <v>-73810000</v>
       </c>
       <c r="D45" t="n">
-        <v>-470000</v>
+        <v>-77810000</v>
       </c>
       <c r="E45" t="n">
-        <v>-430000</v>
+        <v>-35350000</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>8440000</v>
       </c>
       <c r="G45" t="n">
-        <v>-400000</v>
+        <v>-8570000</v>
       </c>
       <c r="H45" t="n">
-        <v>-400000</v>
+        <v>-151850000</v>
       </c>
       <c r="I45" t="n">
-        <v>-9290000</v>
+        <v>-78660000</v>
       </c>
       <c r="J45" t="n">
-        <v>-370000</v>
+        <v>-113040000</v>
       </c>
       <c r="K45" t="n">
-        <v>-110000</v>
+        <v>-97440000</v>
       </c>
       <c r="L45" t="n">
-        <v>-540000</v>
+        <v>27100000</v>
       </c>
       <c r="M45" t="n">
-        <v>10040000</v>
+        <v>534320000</v>
       </c>
       <c r="N45" t="n">
-        <v>5100000</v>
+        <v>174390000</v>
       </c>
       <c r="O45" t="n">
-        <v>7090000</v>
+        <v>99390000</v>
       </c>
       <c r="P45" t="n">
-        <v>4920000</v>
+        <v>138890000</v>
       </c>
     </row>
     <row r="46">
@@ -40993,46 +40993,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>-73810000</v>
+        <v>-115070000</v>
       </c>
       <c r="D46" t="n">
-        <v>-77810000</v>
+        <v>-169710000</v>
       </c>
       <c r="E46" t="n">
-        <v>-35350000</v>
+        <v>182970000</v>
       </c>
       <c r="F46" t="n">
-        <v>8440000</v>
+        <v>-203090000</v>
       </c>
       <c r="G46" t="n">
-        <v>-8570000</v>
+        <v>-97970000</v>
       </c>
       <c r="H46" t="n">
-        <v>-151850000</v>
+        <v>-17910000</v>
       </c>
       <c r="I46" t="n">
-        <v>-78660000</v>
+        <v>-16740000</v>
       </c>
       <c r="J46" t="n">
-        <v>-113040000</v>
+        <v>-90860000</v>
       </c>
       <c r="K46" t="n">
-        <v>-97440000</v>
+        <v>-426800000</v>
       </c>
       <c r="L46" t="n">
-        <v>27100000</v>
+        <v>-761610000</v>
       </c>
       <c r="M46" t="n">
-        <v>534320000</v>
+        <v>-78670000</v>
       </c>
       <c r="N46" t="n">
-        <v>174390000</v>
+        <v>-52880000</v>
       </c>
       <c r="O46" t="n">
-        <v>99390000</v>
+        <v>-1418360000</v>
       </c>
       <c r="P46" t="n">
-        <v>138890000</v>
+        <v>-149960000</v>
       </c>
     </row>
     <row r="47">
